--- a/result/시설별_기준값_단위포함.xlsx
+++ b/result/시설별_기준값_단위포함.xlsx
@@ -37,22 +37,22 @@
     <t>VOC (μg/m³)</t>
   </si>
   <si>
-    <t>Gasan A1 Tower Underground Parking</t>
-  </si>
-  <si>
-    <t>Indoor Golf Simulator Facility</t>
+    <t>Indoor Golf Simulation Facility</t>
+  </si>
+  <si>
+    <t>Childcare Center</t>
+  </si>
+  <si>
+    <t>Underground Parking Facility</t>
+  </si>
+  <si>
+    <t>Daycare Center</t>
+  </si>
+  <si>
+    <t>Educational Facility</t>
   </si>
   <si>
     <t>Subway Station</t>
-  </si>
-  <si>
-    <t>Children's Facility</t>
-  </si>
-  <si>
-    <t>Daycare Center</t>
-  </si>
-  <si>
-    <t>Academy</t>
   </si>
 </sst>
 </file>
@@ -447,22 +447,22 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>100000000</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>100000000</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>100000000</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,25 +470,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>100000000</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>100000000</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>100000000</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>10000000</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>100000000</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>100000000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,25 +496,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>1000000</v>
       </c>
       <c r="G4">
         <v>1000</v>
       </c>
       <c r="H4">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,25 +548,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
         <v>50</v>
-      </c>
-      <c r="F6">
-        <v>35</v>
       </c>
       <c r="G6">
         <v>1000</v>
       </c>
       <c r="H6">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:8">
